--- a/Testes.xlsx
+++ b/Testes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgmfe\Documents\GitHub\Projeto-IAA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178471B0-323B-4337-B694-24885FF784B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF43DC6-D902-4FFF-97BF-68F8B5077F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapa2a" sheetId="2" r:id="rId1"/>
+    <sheet name="Mapa2b" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
   <si>
     <t>Mapa2a</t>
   </si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>Recursos apanhados</t>
+  </si>
+  <si>
+    <t>Mapa2b</t>
   </si>
 </sst>
 </file>
@@ -405,7 +409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A668E9B-DE86-4C52-857A-ECF2AD6B7CB4}">
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -596,4 +600,200 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Testes.xlsx
+++ b/Testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF43DC6-D902-4FFF-97BF-68F8B5077F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77AB3ED-360E-44DF-81A5-CB6636ED6FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
   <si>
     <t>Mapa2a</t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>Mapa2b</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Sim, no fim do mapa</t>
+  </si>
+  <si>
+    <t>0-2,3</t>
+  </si>
+  <si>
+    <t>Strenght Factor</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>0-0,3</t>
   </si>
 </sst>
 </file>
@@ -412,7 +433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A668E9B-DE86-4C52-857A-ECF2AD6B7CB4}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -429,6 +452,7 @@
     <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
     <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -499,6 +523,9 @@
       <c r="N5" t="s">
         <v>9</v>
       </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
       <c r="P5" t="s">
         <v>10</v>
       </c>
@@ -576,24 +603,186 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
       <c r="K12" t="s">
         <v>3</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>90</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
       <c r="K13" t="s">
         <v>4</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
       <c r="K14" t="s">
         <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>90</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>0.02</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Testes.xlsx
+++ b/Testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77AB3ED-360E-44DF-81A5-CB6636ED6FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391CDA4-9354-42C6-83DB-DAB7C59F433A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
   <si>
     <t>Mapa2a</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>0-0,3</t>
+  </si>
+  <si>
+    <t>0,1-0,7</t>
+  </si>
+  <si>
+    <t>0-3</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,6 +718,33 @@
       </c>
       <c r="N13">
         <v>10</v>
+      </c>
+      <c r="O13">
+        <v>0.01</v>
+      </c>
+      <c r="P13">
+        <v>0.2</v>
+      </c>
+      <c r="Q13">
+        <v>0.04</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">

--- a/Testes.xlsx
+++ b/Testes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgmfe\Documents\GitHub\Projeto-IAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391CDA4-9354-42C6-83DB-DAB7C59F433A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92568EC7-D502-444B-A346-4C8CE525A383}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-1296" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa2a" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="45">
   <si>
     <t>Mapa2a</t>
   </si>
@@ -119,16 +119,64 @@
   </si>
   <si>
     <t>0-3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tempo (s)</t>
+  </si>
+  <si>
+    <t>0,25-0,75</t>
+  </si>
+  <si>
+    <t>0,05-0,6</t>
+  </si>
+  <si>
+    <t>0-0,5</t>
+  </si>
+  <si>
+    <t>0-0,2</t>
+  </si>
+  <si>
+    <t>0-0,1</t>
+  </si>
+  <si>
+    <t>0-0,05</t>
+  </si>
+  <si>
+    <t>Infinito</t>
+  </si>
+  <si>
+    <t>0-0,4</t>
+  </si>
+  <si>
+    <t>0,1-0,4</t>
+  </si>
+  <si>
+    <t>0,1-0,2</t>
+  </si>
+  <si>
+    <t>0-0,03</t>
+  </si>
+  <si>
+    <t>0-0,04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,9 +202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,42 +486,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A668E9B-DE86-4C52-857A-ECF2AD6B7CB4}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -480,7 +529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -492,7 +541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -554,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="W5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -565,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -573,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -581,66 +630,237 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="K9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>90</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
         <v>22</v>
       </c>
-      <c r="J12" t="s">
+      <c r="S9" t="s">
         <v>22</v>
       </c>
-      <c r="K12" t="s">
+      <c r="T9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>3</v>
       </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>90</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>90</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M12">
         <v>90</v>
@@ -649,19 +869,19 @@
         <v>10</v>
       </c>
       <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="S12" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="T12" t="s">
         <v>23</v>
@@ -673,45 +893,39 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M13">
         <v>90</v>
@@ -720,69 +934,63 @@
         <v>10</v>
       </c>
       <c r="O13">
-        <v>0.01</v>
-      </c>
-      <c r="P13">
-        <v>0.2</v>
-      </c>
-      <c r="Q13">
-        <v>0.04</v>
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="S13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U13" t="s">
         <v>23</v>
       </c>
       <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" t="s">
-        <v>5</v>
+      <c r="W13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M14">
         <v>90</v>
@@ -791,19 +999,19 @@
         <v>10</v>
       </c>
       <c r="O14">
-        <v>0.02</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R14" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s">
         <v>27</v>
@@ -815,10 +1023,2056 @@
         <v>1</v>
       </c>
       <c r="W14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>90</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>90</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>90</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>0.4</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>90</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>0.3</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>90</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>0.12</v>
+      </c>
+      <c r="R19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" t="s">
+        <v>24</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>90</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <v>0.12</v>
+      </c>
+      <c r="R20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" t="s">
+        <v>24</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>90</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>0.12</v>
+      </c>
+      <c r="R21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>90</v>
+      </c>
+      <c r="N22">
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0.1</v>
+      </c>
+      <c r="Q22">
+        <v>0.12</v>
+      </c>
+      <c r="R22" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>90</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>0.05</v>
+      </c>
+      <c r="R23" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" t="s">
+        <v>27</v>
+      </c>
+      <c r="U23" t="s">
+        <v>24</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>90</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>0.1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>90</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>0.1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" t="s">
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>90</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>0.3</v>
+      </c>
+      <c r="P26">
+        <v>0.5</v>
+      </c>
+      <c r="Q26">
+        <v>0.1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" t="s">
+        <v>37</v>
+      </c>
+      <c r="T26" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>90</v>
+      </c>
+      <c r="N27">
+        <v>10</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>0.2</v>
+      </c>
+      <c r="Q27">
+        <v>0.1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" t="s">
+        <v>24</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>90</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0.2</v>
+      </c>
+      <c r="Q28">
+        <v>0.1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" t="s">
+        <v>24</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>90</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0.2</v>
+      </c>
+      <c r="Q29">
+        <v>0.1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29" t="s">
+        <v>27</v>
+      </c>
+      <c r="U29" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>90</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>0.5</v>
+      </c>
+      <c r="P30">
+        <v>0.2</v>
+      </c>
+      <c r="Q30">
+        <v>0.1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" t="s">
+        <v>23</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>90</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+      <c r="Q31">
+        <v>0.12</v>
+      </c>
+      <c r="R31" t="s">
+        <v>22</v>
+      </c>
+      <c r="S31" t="s">
+        <v>22</v>
+      </c>
+      <c r="T31" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" t="s">
+        <v>24</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>90</v>
+      </c>
+      <c r="N32">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0.5</v>
+      </c>
+      <c r="Q32">
+        <v>0.12</v>
+      </c>
+      <c r="R32" t="s">
+        <v>33</v>
+      </c>
+      <c r="S32" t="s">
+        <v>22</v>
+      </c>
+      <c r="T32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U32" t="s">
+        <v>24</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>90</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <v>0.12</v>
+      </c>
+      <c r="R33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" t="s">
+        <v>24</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>90</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0.1</v>
+      </c>
+      <c r="Q34">
+        <v>0.12</v>
+      </c>
+      <c r="R34" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" t="s">
+        <v>27</v>
+      </c>
+      <c r="U34" t="s">
+        <v>24</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>90</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0.5</v>
+      </c>
+      <c r="Q35">
+        <v>0.05</v>
+      </c>
+      <c r="R35" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" t="s">
+        <v>27</v>
+      </c>
+      <c r="U35" t="s">
+        <v>24</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>90</v>
+      </c>
+      <c r="N36">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0.3</v>
+      </c>
+      <c r="Q36">
+        <v>0.1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S36" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" t="s">
+        <v>27</v>
+      </c>
+      <c r="U36" t="s">
+        <v>24</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>90</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0.3</v>
+      </c>
+      <c r="Q37">
+        <v>0.1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" t="s">
+        <v>27</v>
+      </c>
+      <c r="U37" t="s">
+        <v>24</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>90</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0.3</v>
+      </c>
+      <c r="Q38">
+        <v>0.1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38" t="s">
+        <v>38</v>
+      </c>
+      <c r="T38" t="s">
+        <v>27</v>
+      </c>
+      <c r="U38" t="s">
+        <v>24</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>90</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0.4</v>
+      </c>
+      <c r="Q39">
+        <v>0.1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" t="s">
+        <v>38</v>
+      </c>
+      <c r="T39" t="s">
+        <v>27</v>
+      </c>
+      <c r="U39" t="s">
+        <v>24</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>90</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0.2</v>
+      </c>
+      <c r="Q40">
+        <v>0.1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" t="s">
+        <v>38</v>
+      </c>
+      <c r="T40" t="s">
+        <v>27</v>
+      </c>
+      <c r="U40" t="s">
+        <v>24</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>90</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>0.2</v>
+      </c>
+      <c r="Q41">
+        <v>0.1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" t="s">
+        <v>43</v>
+      </c>
+      <c r="T41" t="s">
+        <v>27</v>
+      </c>
+      <c r="U41" t="s">
+        <v>23</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>90</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0.2</v>
+      </c>
+      <c r="Q42">
+        <v>0.1</v>
+      </c>
+      <c r="R42" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" t="s">
+        <v>44</v>
+      </c>
+      <c r="T42" t="s">
+        <v>27</v>
+      </c>
+      <c r="U42" t="s">
+        <v>24</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>90</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>22</v>
+      </c>
+      <c r="S43" t="s">
+        <v>22</v>
+      </c>
+      <c r="T43" t="s">
+        <v>23</v>
+      </c>
+      <c r="U43" t="s">
+        <v>24</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>90</v>
+      </c>
+      <c r="N44">
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>0.01</v>
+      </c>
+      <c r="P44">
+        <v>0.2</v>
+      </c>
+      <c r="Q44">
+        <v>0.04</v>
+      </c>
+      <c r="R44" t="s">
+        <v>29</v>
+      </c>
+      <c r="S44" t="s">
+        <v>30</v>
+      </c>
+      <c r="T44" t="s">
+        <v>27</v>
+      </c>
+      <c r="U44" t="s">
+        <v>23</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+      <c r="M45">
+        <v>90</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>0.02</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>28</v>
+      </c>
+      <c r="S45" t="s">
+        <v>25</v>
+      </c>
+      <c r="T45" t="s">
+        <v>27</v>
+      </c>
+      <c r="U45" t="s">
+        <v>23</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -832,35 +3086,35 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -868,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -880,7 +3134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -942,7 +3196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -950,7 +3204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -958,7 +3212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -966,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -974,7 +3228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -982,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -990,7 +3244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -998,7 +3252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1006,7 +3260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
